--- a/biology/Botanique/Azima_tetracantha/Azima_tetracantha.xlsx
+++ b/biology/Botanique/Azima_tetracantha/Azima_tetracantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Azima tetracantha est une espèce de plantes à fleurs de la famille des Salvadoraceae. C'est une plante ornementale ayant aussi pour nom commun Bee Sting Bush et connue sous le nom de « Yashankala » en Ayurveda.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste ou un arbre.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants[1] : Afrique du Sud, Angola, Bangladesh, Birmanie, Burundi, Comores, Eswatini, Inde, Kenya, Madagascar, Malawi, Mayotte, Mozambique, Namibie, Oman, Ouganda, Rwanda, République démocratique du Congo, Seychelles, Somalie, Sri Lanka, Tanzanie, Yémen, Zambie, Zimbabwe.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants : Afrique du Sud, Angola, Bangladesh, Birmanie, Burundi, Comores, Eswatini, Inde, Kenya, Madagascar, Malawi, Mayotte, Mozambique, Namibie, Oman, Ouganda, Rwanda, République démocratique du Congo, Seychelles, Somalie, Sri Lanka, Tanzanie, Yémen, Zambie, Zimbabwe.
 Il pousse principalement dans le biome tropical saisonnier sec.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son feuillage est un médicament important pour les traitements post-grossesse. Il est également utilisé pour les « traitements karkidaka » qui sont célèbres au Kerala.
 </t>
@@ -605,10 +623,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Azima tetracantha Lam.[2].
-Azima tetracantha a pour synonymes[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Azima tetracantha Lam..
+Azima tetracantha a pour synonymes :
 Azima nova J.F.Gmel.
 Azima sarmentosa Vill.
 Azima sarmentosa Vill. ex Vidal
